--- a/7/2/2/2/Economía nacional 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/Economía nacional 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Serie</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP74"/>
+  <dimension ref="A1:AP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10071,52 +10074,52 @@
         <v>114</v>
       </c>
       <c r="B74">
-        <v>16601</v>
+        <v>16345</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>-4697</v>
+        <v>-5267</v>
       </c>
       <c r="E74">
-        <v>-781</v>
+        <v>-956</v>
       </c>
       <c r="F74">
-        <v>-3916</v>
+        <v>-4311</v>
       </c>
       <c r="G74">
-        <v>2985</v>
+        <v>3610</v>
       </c>
       <c r="H74">
         <v>2116</v>
       </c>
       <c r="I74">
-        <v>869</v>
+        <v>1494</v>
       </c>
       <c r="J74">
         <v>-487</v>
       </c>
       <c r="K74">
-        <v>3676</v>
+        <v>3506</v>
       </c>
       <c r="L74">
         <v>893</v>
       </c>
       <c r="M74">
-        <v>2783</v>
+        <v>2612</v>
       </c>
       <c r="N74">
-        <v>8234</v>
+        <v>9463</v>
       </c>
       <c r="O74">
-        <v>3453</v>
+        <v>4679</v>
       </c>
       <c r="P74">
         <v>-33</v>
       </c>
       <c r="Q74">
-        <v>4814</v>
+        <v>4816</v>
       </c>
       <c r="R74">
         <v>-991</v>
@@ -10131,13 +10134,13 @@
         <v>-4</v>
       </c>
       <c r="V74">
-        <v>7839</v>
+        <v>6470</v>
       </c>
       <c r="W74">
-        <v>-1127</v>
+        <v>-1332</v>
       </c>
       <c r="X74">
-        <v>17727</v>
+        <v>17677</v>
       </c>
       <c r="Y74">
         <v>-3797</v>
@@ -10149,34 +10152,34 @@
         <v>-3887</v>
       </c>
       <c r="AB74">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="AC74">
         <v>1948</v>
       </c>
       <c r="AD74">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="AE74">
-        <v>4712</v>
+        <v>4523</v>
       </c>
       <c r="AF74">
-        <v>1573</v>
+        <v>1607</v>
       </c>
       <c r="AG74">
-        <v>3139</v>
+        <v>2917</v>
       </c>
       <c r="AH74">
-        <v>6728</v>
+        <v>7126</v>
       </c>
       <c r="AI74">
-        <v>2702</v>
+        <v>3099</v>
       </c>
       <c r="AJ74">
         <v>-42</v>
       </c>
       <c r="AK74">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="AL74">
         <v>-991</v>
@@ -10191,7 +10194,135 @@
         <v>-4</v>
       </c>
       <c r="AP74">
-        <v>7758</v>
+        <v>7495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42">
+      <c r="A75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75">
+        <v>26655</v>
+      </c>
+      <c r="C75">
+        <v>-61</v>
+      </c>
+      <c r="D75">
+        <v>14846</v>
+      </c>
+      <c r="E75">
+        <v>12200</v>
+      </c>
+      <c r="F75">
+        <v>2647</v>
+      </c>
+      <c r="G75">
+        <v>8711</v>
+      </c>
+      <c r="H75">
+        <v>7440</v>
+      </c>
+      <c r="I75">
+        <v>1271</v>
+      </c>
+      <c r="J75">
+        <v>53</v>
+      </c>
+      <c r="K75">
+        <v>10839</v>
+      </c>
+      <c r="L75">
+        <v>7142</v>
+      </c>
+      <c r="M75">
+        <v>3698</v>
+      </c>
+      <c r="N75">
+        <v>-5102</v>
+      </c>
+      <c r="O75">
+        <v>-1055</v>
+      </c>
+      <c r="P75">
+        <v>-732</v>
+      </c>
+      <c r="Q75">
+        <v>-3315</v>
+      </c>
+      <c r="R75">
+        <v>-8424</v>
+      </c>
+      <c r="S75">
+        <v>-560</v>
+      </c>
+      <c r="T75">
+        <v>-520</v>
+      </c>
+      <c r="U75">
+        <v>-40</v>
+      </c>
+      <c r="V75">
+        <v>6352</v>
+      </c>
+      <c r="W75">
+        <v>-1895</v>
+      </c>
+      <c r="X75">
+        <v>28550</v>
+      </c>
+      <c r="Y75">
+        <v>10931</v>
+      </c>
+      <c r="Z75">
+        <v>10270</v>
+      </c>
+      <c r="AA75">
+        <v>661</v>
+      </c>
+      <c r="AB75">
+        <v>12598</v>
+      </c>
+      <c r="AC75">
+        <v>10045</v>
+      </c>
+      <c r="AD75">
+        <v>2553</v>
+      </c>
+      <c r="AE75">
+        <v>9288</v>
+      </c>
+      <c r="AF75">
+        <v>7442</v>
+      </c>
+      <c r="AG75">
+        <v>1846</v>
+      </c>
+      <c r="AH75">
+        <v>618</v>
+      </c>
+      <c r="AI75">
+        <v>1518</v>
+      </c>
+      <c r="AJ75">
+        <v>-372</v>
+      </c>
+      <c r="AK75">
+        <v>-527</v>
+      </c>
+      <c r="AL75">
+        <v>-8424</v>
+      </c>
+      <c r="AM75">
+        <v>-560</v>
+      </c>
+      <c r="AN75">
+        <v>-520</v>
+      </c>
+      <c r="AO75">
+        <v>-40</v>
+      </c>
+      <c r="AP75">
+        <v>4099</v>
       </c>
     </row>
   </sheetData>

--- a/7/2/2/2/Economía nacional 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/Economía nacional 2003 a 2021 - Trimestral.xlsx
@@ -73,7 +73,7 @@
     <t>Reservas técnicas de seguros activos</t>
   </si>
   <si>
-    <t>Reservas técnicas de seguros de vida activos</t>
+    <t>Derechos sobre las reservas de seguros de vida, activos</t>
   </si>
   <si>
     <t>Reservas para primas y para siniestros activos</t>
